--- a/data/trans_dic/P55_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede irse de vacaciones al menos una semana al año</t>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 99,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>58,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>61,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,65%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>44,29%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>54,53%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51,44%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,12; 65,99</t>
+          <t>50,02; 65,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,38; 52,27</t>
+          <t>51,3; 76,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,53; 61,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,15; 49,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,77; 60,92</t>
+          <t>45,95; 56,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,1; 49,15</t>
+          <t>35,52; 52,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>49,86; 58,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44,74; 60,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>70,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>74,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>58,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,26%</t>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64,49%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,14; 75,09</t>
+          <t>65,4; 75,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,68; 62,92</t>
+          <t>66,29; 79,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,19; 61,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,44; 56,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,84; 67,44</t>
+          <t>53,66; 62,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,9; 58,49</t>
+          <t>55,51; 65,97</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>61,06; 67,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63,32; 71,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,54%</t>
+          <t>86,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84,33%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>87,63%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,95; 89,48</t>
+          <t>81,19; 89,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,44; 87,69</t>
+          <t>81,22; 93,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,02; 85,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,79; 77,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,87; 87,01</t>
+          <t>79,46; 85,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,43; 80,45</t>
+          <t>82,38; 89,48</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>81,34; 86,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83,74; 90,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,6%</t>
+          <t>60,52%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>65,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,26; 75,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,47; 63,32</t>
+          <t>64,0; 75,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,96; 66,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,88; 56,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,62; 70,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,18; 58,95</t>
+          <t>54,0; 65,99</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>61,68; 69,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>72,97%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>74,88%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64,42%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68,63%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>69,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69,06; 75,74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>71,05; 77,7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61,97; 66,67</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>61,18; 67,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>66,56; 70,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>66,89; 71,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 99,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>417205</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>272794</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>434905</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>281981</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>852110</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>554775</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>354846; 465858</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>226687; 336482</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>392056; 482031</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>226158; 336361</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>779099; 919322</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>482548; 648735</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>820.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1114319</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>775515</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>850338</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>651058</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1964657</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1426573</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1033516; 1191367</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>693332; 830916</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>786718; 913428</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>590316; 701500</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1860070; 2055971</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1335664; 1514982</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>878.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>572.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>918069</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>736445</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>942738</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>769082</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1860807</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1505527</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>866533; 955743</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>671071; 770452</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>905262; 977685</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>734777; 798088</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1794911; 1914437</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1438763; 1553592</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>752453</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>575014</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1327466</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>687510; 811749</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>513007; 626966</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1248600; 1413558</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>990.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>780.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1056.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>840.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2046.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1620.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2449593</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2537207</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2227982</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2277134</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4677574</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4814341</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2318478; 2542840</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2407404; 2632464</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2143252; 2305904</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2167080; 2375882</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4536227; 4818008</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4635774; 4960582</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
